--- a/data/analysis/temporal_analysis/museum_activity_groups_var2_governance-size.xlsx
+++ b/data/analysis/temporal_analysis/museum_activity_groups_var2_governance-size.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
   <si>
     <t>msg_count_twitter</t>
   </si>
   <si>
     <t>msg_count_facebook</t>
+  </si>
+  <si>
+    <t>sum</t>
   </si>
   <si>
     <t>mean</t>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>count</t>
+  </si>
+  <si>
+    <t>msg_per_mus</t>
   </si>
   <si>
     <t>active_mus_n</t>
@@ -470,13 +476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X56"/>
+  <dimension ref="A1:AB56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:28">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -491,11 +497,11 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -504,8 +510,12 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+    </row>
+    <row r="2" spans="1:28">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -541,132 +551,156 @@
         <v>12</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="AA2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4">
+        <v>8495</v>
+      </c>
+      <c r="D4">
         <v>2831.7</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2452.3</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>2118</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4236</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4247.5</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4259</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="K4">
+      <c r="L4">
+        <v>2831.7</v>
+      </c>
+      <c r="M4">
         <v>2</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>66.7</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>0.1</v>
       </c>
-      <c r="N4">
+      <c r="P4">
+        <v>4897</v>
+      </c>
+      <c r="Q4">
         <v>1632.3</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>1414.5</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>1200</v>
       </c>
-      <c r="R4">
+      <c r="U4">
         <v>2400</v>
       </c>
-      <c r="S4">
+      <c r="V4">
         <v>2448.5</v>
       </c>
-      <c r="T4">
+      <c r="W4">
         <v>2497</v>
       </c>
-      <c r="U4">
+      <c r="X4">
         <v>3</v>
       </c>
-      <c r="V4">
+      <c r="Y4">
+        <v>1632.3</v>
+      </c>
+      <c r="Z4">
         <v>2</v>
       </c>
-      <c r="W4">
+      <c r="AA4">
         <v>66.7</v>
       </c>
-      <c r="X4">
+      <c r="AB4">
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:28">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>2046</v>
       </c>
-      <c r="E5">
+      <c r="D5">
         <v>2046</v>
       </c>
       <c r="F5">
@@ -682,19 +716,22 @@
         <v>2046</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2046</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
+        <v>2046</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>100</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>1.2</v>
-      </c>
-      <c r="N5">
-        <v>1081</v>
       </c>
       <c r="P5">
         <v>1081</v>
@@ -702,9 +739,6 @@
       <c r="Q5">
         <v>1081</v>
       </c>
-      <c r="R5">
-        <v>1081</v>
-      </c>
       <c r="S5">
         <v>1081</v>
       </c>
@@ -712,576 +746,672 @@
         <v>1081</v>
       </c>
       <c r="U5">
+        <v>1081</v>
+      </c>
+      <c r="V5">
+        <v>1081</v>
+      </c>
+      <c r="W5">
+        <v>1081</v>
+      </c>
+      <c r="X5">
         <v>1</v>
       </c>
-      <c r="V5">
+      <c r="Y5">
+        <v>1081</v>
+      </c>
+      <c r="Z5">
         <v>1</v>
       </c>
-      <c r="W5">
+      <c r="AA5">
         <v>100</v>
       </c>
-      <c r="X5">
+      <c r="AB5">
         <v>1.6</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:28">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6">
+        <v>419895</v>
+      </c>
+      <c r="D6">
         <v>2576</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3752.1</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>402</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1439</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3117</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>24967</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>163</v>
       </c>
-      <c r="K6">
+      <c r="L6">
+        <v>2576</v>
+      </c>
+      <c r="M6">
         <v>136</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>83.40000000000001</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>0.7</v>
       </c>
-      <c r="N6">
+      <c r="P6">
+        <v>102198</v>
+      </c>
+      <c r="Q6">
         <v>627</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>919.3</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>479</v>
       </c>
-      <c r="S6">
+      <c r="V6">
         <v>1009.5</v>
       </c>
-      <c r="T6">
+      <c r="W6">
         <v>8506</v>
       </c>
-      <c r="U6">
+      <c r="X6">
         <v>163</v>
       </c>
-      <c r="V6">
+      <c r="Y6">
+        <v>627</v>
+      </c>
+      <c r="Z6">
         <v>100</v>
       </c>
-      <c r="W6">
+      <c r="AA6">
         <v>61.3</v>
       </c>
-      <c r="X6">
+      <c r="AB6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:28">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7">
+        <v>838500</v>
+      </c>
+      <c r="D7">
         <v>2388.9</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>5639.5</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>2.5</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>656</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2042.5</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>69234</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>351</v>
       </c>
-      <c r="K7">
+      <c r="L7">
+        <v>2388.9</v>
+      </c>
+      <c r="M7">
         <v>266</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>75.8</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>0.4</v>
       </c>
-      <c r="N7">
+      <c r="P7">
+        <v>282804</v>
+      </c>
+      <c r="Q7">
         <v>805.7</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>1715.8</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
         <v>797.5</v>
       </c>
-      <c r="T7">
+      <c r="W7">
         <v>13584</v>
       </c>
-      <c r="U7">
+      <c r="X7">
         <v>351</v>
       </c>
-      <c r="V7">
+      <c r="Y7">
+        <v>805.7</v>
+      </c>
+      <c r="Z7">
         <v>162</v>
       </c>
-      <c r="W7">
+      <c r="AA7">
         <v>46.2</v>
       </c>
-      <c r="X7">
+      <c r="AB7">
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:28">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8">
+        <v>373657</v>
+      </c>
+      <c r="D8">
         <v>1936</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>4698.5</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>17</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1564</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>30940</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>193</v>
       </c>
-      <c r="K8">
+      <c r="L8">
+        <v>1936</v>
+      </c>
+      <c r="M8">
         <v>106</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>54.9</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>-0.2</v>
       </c>
-      <c r="N8">
+      <c r="P8">
+        <v>111785</v>
+      </c>
+      <c r="Q8">
         <v>579.2</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>1557.7</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
         <v>272</v>
       </c>
-      <c r="T8">
+      <c r="W8">
         <v>13530</v>
       </c>
-      <c r="U8">
+      <c r="X8">
         <v>193</v>
       </c>
-      <c r="V8">
+      <c r="Y8">
+        <v>579.2</v>
+      </c>
+      <c r="Z8">
         <v>59</v>
       </c>
-      <c r="W8">
+      <c r="AA8">
         <v>30.6</v>
       </c>
-      <c r="X8">
+      <c r="AB8">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:28">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9">
+        <v>32762</v>
+      </c>
+      <c r="D9">
         <v>3276.2</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>7200.2</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>203.5</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3188.2</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>23238</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>10</v>
       </c>
-      <c r="K9">
+      <c r="L9">
+        <v>3276.2</v>
+      </c>
+      <c r="M9">
         <v>6</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>60</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>-0.1</v>
       </c>
-      <c r="N9">
+      <c r="P9">
+        <v>8515</v>
+      </c>
+      <c r="Q9">
         <v>851.5</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>1044.1</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>406</v>
       </c>
-      <c r="S9">
+      <c r="V9">
         <v>1490</v>
       </c>
-      <c r="T9">
+      <c r="W9">
         <v>2914</v>
       </c>
-      <c r="U9">
+      <c r="X9">
         <v>10</v>
       </c>
-      <c r="V9">
+      <c r="Y9">
+        <v>851.5</v>
+      </c>
+      <c r="Z9">
         <v>5</v>
       </c>
-      <c r="W9">
+      <c r="AA9">
         <v>50</v>
       </c>
-      <c r="X9">
+      <c r="AB9">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:28">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10">
+        <v>95131</v>
+      </c>
+      <c r="D10">
         <v>10570.1</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>8669.1</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>5428</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>10640</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>13900</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>24416</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>9</v>
       </c>
-      <c r="K10">
+      <c r="L10">
+        <v>10570.1</v>
+      </c>
+      <c r="M10">
         <v>8</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>88.90000000000001</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>0.8</v>
       </c>
-      <c r="N10">
+      <c r="P10">
+        <v>11313</v>
+      </c>
+      <c r="Q10">
         <v>1257</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>953.6</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>1004</v>
       </c>
-      <c r="R10">
+      <c r="U10">
         <v>1153</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>1559</v>
       </c>
-      <c r="T10">
+      <c r="W10">
         <v>3063</v>
       </c>
-      <c r="U10">
+      <c r="X10">
         <v>9</v>
       </c>
-      <c r="V10">
+      <c r="Y10">
+        <v>1257</v>
+      </c>
+      <c r="Z10">
         <v>7</v>
       </c>
-      <c r="W10">
+      <c r="AA10">
         <v>77.8</v>
       </c>
-      <c r="X10">
+      <c r="AB10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:28">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11">
+        <v>194479</v>
+      </c>
+      <c r="D11">
         <v>3889.6</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>5090.1</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>646.2</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2477.5</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>5894.2</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>23307</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>50</v>
       </c>
-      <c r="K11">
+      <c r="L11">
+        <v>3889.6</v>
+      </c>
+      <c r="M11">
         <v>42</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>84</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>0.7</v>
       </c>
-      <c r="N11">
+      <c r="P11">
+        <v>32670</v>
+      </c>
+      <c r="Q11">
         <v>653.4</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>583.9</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
         <v>625.5</v>
       </c>
-      <c r="S11">
+      <c r="V11">
         <v>1060</v>
       </c>
-      <c r="T11">
+      <c r="W11">
         <v>2001</v>
       </c>
-      <c r="U11">
+      <c r="X11">
         <v>50</v>
       </c>
-      <c r="V11">
+      <c r="Y11">
+        <v>653.4</v>
+      </c>
+      <c r="Z11">
         <v>36</v>
       </c>
-      <c r="W11">
+      <c r="AA11">
         <v>72</v>
       </c>
-      <c r="X11">
+      <c r="AB11">
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:28">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12">
+        <v>1578</v>
+      </c>
+      <c r="D12">
         <v>263</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>296.4</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>199.5</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>539.2</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>593</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>6</v>
       </c>
-      <c r="K12">
+      <c r="L12">
+        <v>263</v>
+      </c>
+      <c r="M12">
         <v>3</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>50</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>-0.4</v>
       </c>
-      <c r="N12">
+      <c r="P12">
+        <v>2160</v>
+      </c>
+      <c r="Q12">
         <v>360</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>431</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
         <v>218</v>
       </c>
-      <c r="S12">
+      <c r="V12">
         <v>663.2</v>
       </c>
-      <c r="T12">
+      <c r="W12">
         <v>985</v>
       </c>
-      <c r="U12">
+      <c r="X12">
         <v>6</v>
       </c>
-      <c r="V12">
+      <c r="Y12">
+        <v>360</v>
+      </c>
+      <c r="Z12">
         <v>3</v>
       </c>
-      <c r="W12">
+      <c r="AA12">
         <v>50</v>
       </c>
-      <c r="X12">
+      <c r="AB12">
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:28">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13">
+        <v>30243</v>
+      </c>
+      <c r="D13">
         <v>15121.5</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.7</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>15121</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>15121.2</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>15121.5</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>15121.8</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>15122</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
       <c r="L13">
+        <v>15121.5</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
         <v>100</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>1.2</v>
       </c>
-      <c r="N13">
-        <v>910</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
       <c r="P13">
-        <v>910</v>
+        <v>1820</v>
       </c>
       <c r="Q13">
         <v>910</v>
       </c>
       <c r="R13">
-        <v>910</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>910</v>
@@ -1290,101 +1420,125 @@
         <v>910</v>
       </c>
       <c r="U13">
+        <v>910</v>
+      </c>
+      <c r="V13">
+        <v>910</v>
+      </c>
+      <c r="W13">
+        <v>910</v>
+      </c>
+      <c r="X13">
         <v>2</v>
       </c>
-      <c r="V13">
+      <c r="Y13">
+        <v>910</v>
+      </c>
+      <c r="Z13">
         <v>2</v>
       </c>
-      <c r="W13">
+      <c r="AA13">
         <v>100</v>
       </c>
-      <c r="X13">
+      <c r="AB13">
         <v>1.6</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:28">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14">
+        <v>7156</v>
+      </c>
+      <c r="D14">
         <v>3578</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>4283.7</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>549</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>2063.5</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3578</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>5092.5</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>6607</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
+        <v>3578</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
         <v>100</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>1.2</v>
       </c>
-      <c r="N14">
+      <c r="P14">
+        <v>1563</v>
+      </c>
+      <c r="Q14">
         <v>781.5</v>
       </c>
-      <c r="O14">
+      <c r="R14">
         <v>345.8</v>
       </c>
-      <c r="P14">
+      <c r="S14">
         <v>537</v>
       </c>
-      <c r="Q14">
+      <c r="T14">
         <v>659.2</v>
       </c>
-      <c r="R14">
+      <c r="U14">
         <v>781.5</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>903.8</v>
       </c>
-      <c r="T14">
+      <c r="W14">
         <v>1026</v>
       </c>
-      <c r="U14">
+      <c r="X14">
         <v>2</v>
       </c>
-      <c r="V14">
+      <c r="Y14">
+        <v>781.5</v>
+      </c>
+      <c r="Z14">
         <v>2</v>
       </c>
-      <c r="W14">
+      <c r="AA14">
         <v>100</v>
       </c>
-      <c r="X14">
+      <c r="AB14">
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:28">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>856</v>
       </c>
-      <c r="E15">
+      <c r="D15">
         <v>856</v>
       </c>
       <c r="F15">
@@ -1400,19 +1554,22 @@
         <v>856</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>856</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
+        <v>856</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <v>100</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>1.2</v>
-      </c>
-      <c r="N15">
-        <v>593</v>
       </c>
       <c r="P15">
         <v>593</v>
@@ -1420,9 +1577,6 @@
       <c r="Q15">
         <v>593</v>
       </c>
-      <c r="R15">
-        <v>593</v>
-      </c>
       <c r="S15">
         <v>593</v>
       </c>
@@ -1430,27 +1584,39 @@
         <v>593</v>
       </c>
       <c r="U15">
+        <v>593</v>
+      </c>
+      <c r="V15">
+        <v>593</v>
+      </c>
+      <c r="W15">
+        <v>593</v>
+      </c>
+      <c r="X15">
         <v>1</v>
       </c>
-      <c r="V15">
+      <c r="Y15">
+        <v>593</v>
+      </c>
+      <c r="Z15">
         <v>1</v>
       </c>
-      <c r="W15">
+      <c r="AA15">
         <v>100</v>
       </c>
-      <c r="X15">
+      <c r="AB15">
         <v>1.6</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:28">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>383</v>
       </c>
-      <c r="E16">
+      <c r="D16">
         <v>383</v>
       </c>
       <c r="F16">
@@ -1466,29 +1632,29 @@
         <v>383</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>383</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
+        <v>383</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
         <v>100</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>1.2</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
       <c r="S16">
         <v>0</v>
       </c>
@@ -1496,27 +1662,39 @@
         <v>0</v>
       </c>
       <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
         <v>1</v>
       </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:28">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="D17">
         <v>0</v>
       </c>
       <c r="F17">
@@ -1532,29 +1710,29 @@
         <v>0</v>
       </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>1</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>-2</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
       <c r="S17">
         <v>0</v>
       </c>
@@ -1562,178 +1740,214 @@
         <v>0</v>
       </c>
       <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
         <v>1</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:28">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>2065</v>
+      </c>
+      <c r="D18">
+        <v>1032.5</v>
+      </c>
+      <c r="E18">
+        <v>1460.2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>516.2</v>
+      </c>
+      <c r="H18">
+        <v>1032.5</v>
+      </c>
+      <c r="I18">
+        <v>1548.8</v>
+      </c>
+      <c r="J18">
+        <v>2065</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1032.5</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>50</v>
+      </c>
+      <c r="O18">
+        <v>-0.4</v>
+      </c>
+      <c r="P18">
+        <v>683</v>
+      </c>
+      <c r="Q18">
+        <v>341.5</v>
+      </c>
+      <c r="R18">
+        <v>483</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>170.8</v>
+      </c>
+      <c r="U18">
+        <v>341.5</v>
+      </c>
+      <c r="V18">
+        <v>512.2</v>
+      </c>
+      <c r="W18">
+        <v>683</v>
+      </c>
+      <c r="X18">
+        <v>2</v>
+      </c>
+      <c r="Y18">
+        <v>341.5</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>50</v>
+      </c>
+      <c r="AB18">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C18">
-        <v>1032.5</v>
-      </c>
-      <c r="D18">
-        <v>1460.2</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>516.2</v>
-      </c>
-      <c r="G18">
-        <v>1032.5</v>
-      </c>
-      <c r="H18">
-        <v>1548.8</v>
-      </c>
-      <c r="I18">
-        <v>2065</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>50</v>
-      </c>
-      <c r="M18">
-        <v>-0.4</v>
-      </c>
-      <c r="N18">
-        <v>341.5</v>
-      </c>
-      <c r="O18">
-        <v>483</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>170.8</v>
-      </c>
-      <c r="R18">
-        <v>341.5</v>
-      </c>
-      <c r="S18">
-        <v>512.2</v>
-      </c>
-      <c r="T18">
-        <v>683</v>
-      </c>
-      <c r="U18">
-        <v>2</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <v>50</v>
-      </c>
-      <c r="X18">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C19">
+        <v>4694</v>
+      </c>
+      <c r="D19">
         <v>361.1</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>305.6</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
       <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>23</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>434</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>637</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>826</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>13</v>
       </c>
-      <c r="K19">
+      <c r="L19">
+        <v>361.1</v>
+      </c>
+      <c r="M19">
         <v>10</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>76.90000000000001</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>0.5</v>
       </c>
-      <c r="N19">
+      <c r="P19">
+        <v>3332</v>
+      </c>
+      <c r="Q19">
         <v>256.3</v>
       </c>
-      <c r="O19">
+      <c r="R19">
         <v>183.2</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
         <v>342</v>
       </c>
-      <c r="S19">
+      <c r="V19">
         <v>368</v>
       </c>
-      <c r="T19">
+      <c r="W19">
         <v>479</v>
       </c>
-      <c r="U19">
+      <c r="X19">
         <v>13</v>
       </c>
-      <c r="V19">
+      <c r="Y19">
+        <v>256.3</v>
+      </c>
+      <c r="Z19">
         <v>9</v>
       </c>
-      <c r="W19">
+      <c r="AA19">
         <v>69.2</v>
       </c>
-      <c r="X19">
+      <c r="AB19">
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:28">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20">
+        <v>11677</v>
+      </c>
+      <c r="D20">
         <v>432.5</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1263.8</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
       <c r="F20">
         <v>0</v>
       </c>
@@ -1741,71 +1955,83 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>148.5</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>6015</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>27</v>
       </c>
-      <c r="K20">
+      <c r="L20">
+        <v>432.5</v>
+      </c>
+      <c r="M20">
         <v>10</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>37</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>-0.8</v>
       </c>
-      <c r="N20">
+      <c r="P20">
+        <v>1962</v>
+      </c>
+      <c r="Q20">
         <v>72.7</v>
       </c>
-      <c r="O20">
+      <c r="R20">
         <v>174.6</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
       <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
         <v>21.5</v>
       </c>
-      <c r="T20">
+      <c r="W20">
         <v>736</v>
       </c>
-      <c r="U20">
+      <c r="X20">
         <v>27</v>
       </c>
-      <c r="V20">
+      <c r="Y20">
+        <v>72.7</v>
+      </c>
+      <c r="Z20">
         <v>7</v>
       </c>
-      <c r="W20">
+      <c r="AA20">
         <v>25.9</v>
       </c>
-      <c r="X20">
+      <c r="AB20">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:28">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C21">
+        <v>800</v>
+      </c>
+      <c r="D21">
         <v>72.7</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>175.3</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
       <c r="F21">
         <v>0</v>
       </c>
@@ -1816,26 +2042,26 @@
         <v>0</v>
       </c>
       <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>551</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>11</v>
       </c>
-      <c r="K21">
+      <c r="L21">
+        <v>72.7</v>
+      </c>
+      <c r="M21">
         <v>2</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>18.2</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>-1.4</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
       <c r="P21">
         <v>0</v>
       </c>
@@ -1852,27 +2078,39 @@
         <v>0</v>
       </c>
       <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
         <v>11</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:28">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="E22">
+      <c r="D22">
         <v>0</v>
       </c>
       <c r="F22">
@@ -1888,29 +2126,29 @@
         <v>0</v>
       </c>
       <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>1</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>-2</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
       <c r="S22">
         <v>0</v>
       </c>
@@ -1918,29 +2156,41 @@
         <v>0</v>
       </c>
       <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
         <v>1</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:28">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>6566</v>
       </c>
-      <c r="E23">
+      <c r="D23">
         <v>6566</v>
       </c>
       <c r="F23">
@@ -1956,19 +2206,22 @@
         <v>6566</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>6566</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
+        <v>6566</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
         <v>100</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>1.2</v>
-      </c>
-      <c r="N23">
-        <v>407</v>
       </c>
       <c r="P23">
         <v>407</v>
@@ -1976,9 +2229,6 @@
       <c r="Q23">
         <v>407</v>
       </c>
-      <c r="R23">
-        <v>407</v>
-      </c>
       <c r="S23">
         <v>407</v>
       </c>
@@ -1986,27 +2236,39 @@
         <v>407</v>
       </c>
       <c r="U23">
+        <v>407</v>
+      </c>
+      <c r="V23">
+        <v>407</v>
+      </c>
+      <c r="W23">
+        <v>407</v>
+      </c>
+      <c r="X23">
         <v>1</v>
       </c>
-      <c r="V23">
+      <c r="Y23">
+        <v>407</v>
+      </c>
+      <c r="Z23">
         <v>1</v>
       </c>
-      <c r="W23">
+      <c r="AA23">
         <v>100</v>
       </c>
-      <c r="X23">
+      <c r="AB23">
         <v>1.6</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:28">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="D24">
         <v>0</v>
       </c>
       <c r="F24">
@@ -2022,29 +2284,29 @@
         <v>0</v>
       </c>
       <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>1</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>-2</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
       <c r="S24">
         <v>0</v>
       </c>
@@ -2052,22 +2314,34 @@
         <v>0</v>
       </c>
       <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
         <v>1</v>
       </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:28">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2091,23 +2365,23 @@
         <v>0</v>
       </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>3</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>-2</v>
       </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
       <c r="P25">
         <v>0</v>
       </c>
@@ -2124,22 +2398,34 @@
         <v>0</v>
       </c>
       <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
         <v>3</v>
       </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:28">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2163,283 +2449,331 @@
         <v>0</v>
       </c>
       <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>7</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
         <v>-2</v>
       </c>
-      <c r="N26">
+      <c r="P26">
+        <v>283</v>
+      </c>
+      <c r="Q26">
         <v>40.4</v>
       </c>
-      <c r="O26">
+      <c r="R26">
         <v>107</v>
       </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
         <v>283</v>
       </c>
-      <c r="U26">
+      <c r="X26">
         <v>7</v>
       </c>
-      <c r="V26">
+      <c r="Y26">
+        <v>40.4</v>
+      </c>
+      <c r="Z26">
         <v>1</v>
       </c>
-      <c r="W26">
+      <c r="AA26">
         <v>14.3</v>
       </c>
-      <c r="X26">
+      <c r="AB26">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:28">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27">
+        <v>746</v>
+      </c>
+      <c r="D27">
+        <v>106.6</v>
+      </c>
+      <c r="E27">
+        <v>282</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>746</v>
+      </c>
+      <c r="K27">
+        <v>7</v>
+      </c>
+      <c r="L27">
+        <v>106.6</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>14.3</v>
+      </c>
+      <c r="O27">
+        <v>-1.5</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>7</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C27">
-        <v>106.6</v>
-      </c>
-      <c r="D27">
-        <v>282</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>746</v>
-      </c>
-      <c r="J27">
-        <v>7</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>14.3</v>
-      </c>
-      <c r="M27">
-        <v>-1.5</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>7</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
-      <c r="A28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C28">
+        <v>82864</v>
+      </c>
+      <c r="D28">
         <v>910.6</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>947.1</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
       <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>387.5</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>703</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1170</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>6270</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>91</v>
       </c>
-      <c r="K28">
+      <c r="L28">
+        <v>910.6</v>
+      </c>
+      <c r="M28">
         <v>82</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>90.09999999999999</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>0.9</v>
       </c>
-      <c r="N28">
+      <c r="P28">
+        <v>33002</v>
+      </c>
+      <c r="Q28">
         <v>362.7</v>
       </c>
-      <c r="O28">
+      <c r="R28">
         <v>331.2</v>
       </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
         <v>333</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>621</v>
       </c>
-      <c r="T28">
+      <c r="W28">
         <v>1277</v>
       </c>
-      <c r="U28">
+      <c r="X28">
         <v>91</v>
       </c>
-      <c r="V28">
+      <c r="Y28">
+        <v>362.7</v>
+      </c>
+      <c r="Z28">
         <v>61</v>
       </c>
-      <c r="W28">
+      <c r="AA28">
         <v>67</v>
       </c>
-      <c r="X28">
+      <c r="AB28">
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:28">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C29">
+        <v>19692</v>
+      </c>
+      <c r="D29">
         <v>303</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>969.1</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>6</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>224</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>7392</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>65</v>
       </c>
-      <c r="K29">
+      <c r="L29">
+        <v>303</v>
+      </c>
+      <c r="M29">
         <v>35</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>53.8</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>-0.3</v>
       </c>
-      <c r="N29">
+      <c r="P29">
+        <v>7980</v>
+      </c>
+      <c r="Q29">
         <v>122.8</v>
       </c>
-      <c r="O29">
+      <c r="R29">
         <v>215.9</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
       <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
         <v>190</v>
       </c>
-      <c r="T29">
+      <c r="W29">
         <v>721</v>
       </c>
-      <c r="U29">
+      <c r="X29">
         <v>65</v>
       </c>
-      <c r="V29">
+      <c r="Y29">
+        <v>122.8</v>
+      </c>
+      <c r="Z29">
         <v>21</v>
       </c>
-      <c r="W29">
+      <c r="AA29">
         <v>32.3</v>
       </c>
-      <c r="X29">
+      <c r="AB29">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:28">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C30">
+        <v>12059</v>
+      </c>
+      <c r="D30">
         <v>482.4</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1965.7</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
       <c r="F30">
         <v>0</v>
       </c>
@@ -2447,289 +2781,337 @@
         <v>0</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>115</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>9876</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>25</v>
       </c>
-      <c r="K30">
+      <c r="L30">
+        <v>482.4</v>
+      </c>
+      <c r="M30">
         <v>12</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>48</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>-0.5</v>
       </c>
-      <c r="N30">
+      <c r="P30">
+        <v>1858</v>
+      </c>
+      <c r="Q30">
         <v>74.3</v>
       </c>
-      <c r="O30">
+      <c r="R30">
         <v>171.3</v>
       </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
         <v>582</v>
       </c>
-      <c r="U30">
+      <c r="X30">
         <v>25</v>
       </c>
-      <c r="V30">
+      <c r="Y30">
+        <v>74.3</v>
+      </c>
+      <c r="Z30">
         <v>5</v>
       </c>
-      <c r="W30">
+      <c r="AA30">
         <v>20</v>
       </c>
-      <c r="X30">
+      <c r="AB30">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:28">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31">
+        <v>264</v>
+      </c>
+      <c r="D31">
+        <v>132</v>
+      </c>
+      <c r="E31">
+        <v>186.7</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>66</v>
+      </c>
+      <c r="H31">
+        <v>132</v>
+      </c>
+      <c r="I31">
+        <v>198</v>
+      </c>
+      <c r="J31">
+        <v>264</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>132</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>50</v>
+      </c>
+      <c r="O31">
+        <v>-0.4</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>2</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C31">
-        <v>132</v>
-      </c>
-      <c r="D31">
-        <v>186.7</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>66</v>
-      </c>
-      <c r="G31">
-        <v>132</v>
-      </c>
-      <c r="H31">
-        <v>198</v>
-      </c>
-      <c r="I31">
-        <v>264</v>
-      </c>
-      <c r="J31">
-        <v>2</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>50</v>
-      </c>
-      <c r="M31">
-        <v>-0.4</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>2</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
-      <c r="A32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C32">
+        <v>3883</v>
+      </c>
+      <c r="D32">
         <v>1294.3</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>1220.7</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>51</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>696</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>1341</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>1916</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>2491</v>
-      </c>
-      <c r="J32">
-        <v>3</v>
       </c>
       <c r="K32">
         <v>3</v>
       </c>
       <c r="L32">
+        <v>1294.3</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
         <v>100</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>1.2</v>
       </c>
-      <c r="N32">
+      <c r="P32">
+        <v>2710</v>
+      </c>
+      <c r="Q32">
         <v>903.3</v>
       </c>
-      <c r="O32">
+      <c r="R32">
         <v>731</v>
       </c>
-      <c r="P32">
+      <c r="S32">
         <v>372</v>
       </c>
-      <c r="Q32">
+      <c r="T32">
         <v>486.5</v>
       </c>
-      <c r="R32">
+      <c r="U32">
         <v>601</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>1169</v>
       </c>
-      <c r="T32">
+      <c r="W32">
         <v>1737</v>
       </c>
-      <c r="U32">
+      <c r="X32">
         <v>3</v>
       </c>
-      <c r="V32">
+      <c r="Y32">
+        <v>903.3</v>
+      </c>
+      <c r="Z32">
         <v>3</v>
       </c>
-      <c r="W32">
+      <c r="AA32">
         <v>100</v>
       </c>
-      <c r="X32">
+      <c r="AB32">
         <v>1.6</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:28">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C33">
+        <v>7271</v>
+      </c>
+      <c r="D33">
         <v>519.4</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>728.2</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
       <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>2.5</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>274.5</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>696.2</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>2486</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>14</v>
       </c>
-      <c r="K33">
+      <c r="L33">
+        <v>519.4</v>
+      </c>
+      <c r="M33">
         <v>10</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <v>71.40000000000001</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>0.3</v>
       </c>
-      <c r="N33">
+      <c r="P33">
+        <v>2276</v>
+      </c>
+      <c r="Q33">
         <v>162.6</v>
       </c>
-      <c r="O33">
+      <c r="R33">
         <v>464.4</v>
       </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
         <v>1734</v>
       </c>
-      <c r="U33">
+      <c r="X33">
         <v>14</v>
       </c>
-      <c r="V33">
+      <c r="Y33">
+        <v>162.6</v>
+      </c>
+      <c r="Z33">
         <v>3</v>
       </c>
-      <c r="W33">
+      <c r="AA33">
         <v>21.4</v>
       </c>
-      <c r="X33">
+      <c r="AB33">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:28">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C34">
+        <v>194</v>
+      </c>
+      <c r="D34">
         <v>32.3</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>79.2</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
       <c r="F34">
         <v>0</v>
       </c>
@@ -2740,26 +3122,26 @@
         <v>0</v>
       </c>
       <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>194</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>6</v>
       </c>
-      <c r="K34">
+      <c r="L34">
+        <v>32.3</v>
+      </c>
+      <c r="M34">
         <v>1</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>16.7</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>-1.4</v>
       </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
       <c r="P34">
         <v>0</v>
       </c>
@@ -2776,32 +3158,44 @@
         <v>0</v>
       </c>
       <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
         <v>6</v>
       </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:28">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C35">
+        <v>1552</v>
+      </c>
+      <c r="D35">
         <v>517.3</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>896</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
       <c r="F35">
         <v>0</v>
       </c>
@@ -2809,68 +3203,80 @@
         <v>0</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>776</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>1552</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>3</v>
       </c>
-      <c r="K35">
+      <c r="L35">
+        <v>517.3</v>
+      </c>
+      <c r="M35">
         <v>1</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>33.3</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>-0.9</v>
       </c>
-      <c r="N35">
+      <c r="P35">
+        <v>540</v>
+      </c>
+      <c r="Q35">
         <v>180</v>
       </c>
-      <c r="O35">
+      <c r="R35">
         <v>311.8</v>
       </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
       <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
         <v>270</v>
       </c>
-      <c r="T35">
+      <c r="W35">
         <v>540</v>
       </c>
-      <c r="U35">
+      <c r="X35">
         <v>3</v>
       </c>
-      <c r="V35">
+      <c r="Y35">
+        <v>180</v>
+      </c>
+      <c r="Z35">
         <v>1</v>
       </c>
-      <c r="W35">
+      <c r="AA35">
         <v>33.3</v>
       </c>
-      <c r="X35">
+      <c r="AB35">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:28">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C36">
         <v>9288</v>
       </c>
-      <c r="E36">
+      <c r="D36">
         <v>9288</v>
       </c>
       <c r="F36">
@@ -2886,19 +3292,22 @@
         <v>9288</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>9288</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36">
+        <v>9288</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
         <v>100</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>1.2</v>
-      </c>
-      <c r="N36">
-        <v>295</v>
       </c>
       <c r="P36">
         <v>295</v>
@@ -2906,9 +3315,6 @@
       <c r="Q36">
         <v>295</v>
       </c>
-      <c r="R36">
-        <v>295</v>
-      </c>
       <c r="S36">
         <v>295</v>
       </c>
@@ -2916,684 +3322,804 @@
         <v>295</v>
       </c>
       <c r="U36">
+        <v>295</v>
+      </c>
+      <c r="V36">
+        <v>295</v>
+      </c>
+      <c r="W36">
+        <v>295</v>
+      </c>
+      <c r="X36">
         <v>1</v>
       </c>
-      <c r="V36">
+      <c r="Y36">
+        <v>295</v>
+      </c>
+      <c r="Z36">
         <v>1</v>
       </c>
-      <c r="W36">
+      <c r="AA36">
         <v>100</v>
       </c>
-      <c r="X36">
+      <c r="AB36">
         <v>1.6</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:28">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C37">
+        <v>406912</v>
+      </c>
+      <c r="D37">
         <v>3059.5</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>5574.3</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
       <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>225</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>1427</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>3053</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>39187</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>133</v>
       </c>
-      <c r="K37">
+      <c r="L37">
+        <v>3059.5</v>
+      </c>
+      <c r="M37">
         <v>109</v>
       </c>
-      <c r="L37">
+      <c r="N37">
         <v>82</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>0.6</v>
       </c>
-      <c r="N37">
+      <c r="P37">
+        <v>88243</v>
+      </c>
+      <c r="Q37">
         <v>663.5</v>
       </c>
-      <c r="O37">
+      <c r="R37">
         <v>739.3</v>
       </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
         <v>580</v>
       </c>
-      <c r="S37">
+      <c r="V37">
         <v>1057</v>
       </c>
-      <c r="T37">
+      <c r="W37">
         <v>4352</v>
       </c>
-      <c r="U37">
+      <c r="X37">
         <v>133</v>
       </c>
-      <c r="V37">
+      <c r="Y37">
+        <v>663.5</v>
+      </c>
+      <c r="Z37">
         <v>88</v>
       </c>
-      <c r="W37">
+      <c r="AA37">
         <v>66.2</v>
       </c>
-      <c r="X37">
+      <c r="AB37">
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:28">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C38">
+        <v>461151</v>
+      </c>
+      <c r="D38">
         <v>1512</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>3982.8</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
       <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>21</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>443</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>1563</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>45863</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>305</v>
       </c>
-      <c r="K38">
+      <c r="L38">
+        <v>1512</v>
+      </c>
+      <c r="M38">
         <v>247</v>
       </c>
-      <c r="L38">
+      <c r="N38">
         <v>81</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>0.6</v>
       </c>
-      <c r="N38">
+      <c r="P38">
+        <v>111165</v>
+      </c>
+      <c r="Q38">
         <v>364.5</v>
       </c>
-      <c r="O38">
+      <c r="R38">
         <v>632.2</v>
       </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
       <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
         <v>578</v>
       </c>
-      <c r="T38">
+      <c r="W38">
         <v>7078</v>
       </c>
-      <c r="U38">
+      <c r="X38">
         <v>305</v>
       </c>
-      <c r="V38">
+      <c r="Y38">
+        <v>364.5</v>
+      </c>
+      <c r="Z38">
         <v>145</v>
       </c>
-      <c r="W38">
+      <c r="AA38">
         <v>47.5</v>
       </c>
-      <c r="X38">
+      <c r="AB38">
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:28">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C39">
+        <v>1268698</v>
+      </c>
+      <c r="D39">
         <v>1229.4</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>4602.1</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>52.5</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>670</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>74189</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>1032</v>
       </c>
-      <c r="K39">
+      <c r="L39">
+        <v>1229.4</v>
+      </c>
+      <c r="M39">
         <v>639</v>
       </c>
-      <c r="L39">
+      <c r="N39">
         <v>61.9</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <v>-0</v>
       </c>
-      <c r="N39">
+      <c r="P39">
+        <v>236271</v>
+      </c>
+      <c r="Q39">
         <v>228.9</v>
       </c>
-      <c r="O39">
+      <c r="R39">
         <v>868.7</v>
       </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
         <v>13071</v>
       </c>
-      <c r="U39">
+      <c r="X39">
         <v>1032</v>
       </c>
-      <c r="V39">
+      <c r="Y39">
+        <v>228.9</v>
+      </c>
+      <c r="Z39">
         <v>256</v>
       </c>
-      <c r="W39">
+      <c r="AA39">
         <v>24.8</v>
       </c>
-      <c r="X39">
+      <c r="AB39">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:28">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40">
+        <v>168191</v>
+      </c>
+      <c r="D40">
+        <v>2757.2</v>
+      </c>
+      <c r="E40">
+        <v>11280.7</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>28</v>
+      </c>
+      <c r="I40">
+        <v>1138</v>
+      </c>
+      <c r="J40">
+        <v>75337</v>
+      </c>
+      <c r="K40">
+        <v>61</v>
+      </c>
+      <c r="L40">
+        <v>2757.2</v>
+      </c>
+      <c r="M40">
+        <v>36</v>
+      </c>
+      <c r="N40">
+        <v>59</v>
+      </c>
+      <c r="O40">
+        <v>-0.1</v>
+      </c>
+      <c r="P40">
+        <v>35430</v>
+      </c>
+      <c r="Q40">
+        <v>580.8</v>
+      </c>
+      <c r="R40">
+        <v>2649.1</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>254</v>
+      </c>
+      <c r="W40">
+        <v>20570</v>
+      </c>
+      <c r="X40">
+        <v>61</v>
+      </c>
+      <c r="Y40">
+        <v>580.8</v>
+      </c>
+      <c r="Z40">
+        <v>20</v>
+      </c>
+      <c r="AA40">
+        <v>32.8</v>
+      </c>
+      <c r="AB40">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C40">
-        <v>2757.2</v>
-      </c>
-      <c r="D40">
-        <v>11280.7</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>28</v>
-      </c>
-      <c r="H40">
-        <v>1138</v>
-      </c>
-      <c r="I40">
-        <v>75337</v>
-      </c>
-      <c r="J40">
-        <v>61</v>
-      </c>
-      <c r="K40">
-        <v>36</v>
-      </c>
-      <c r="L40">
-        <v>59</v>
-      </c>
-      <c r="M40">
-        <v>-0.1</v>
-      </c>
-      <c r="N40">
-        <v>580.8</v>
-      </c>
-      <c r="O40">
-        <v>2649.1</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>254</v>
-      </c>
-      <c r="T40">
-        <v>20570</v>
-      </c>
-      <c r="U40">
-        <v>61</v>
-      </c>
-      <c r="V40">
-        <v>20</v>
-      </c>
-      <c r="W40">
-        <v>32.8</v>
-      </c>
-      <c r="X40">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
-      <c r="A41" s="1" t="s">
+      <c r="C41">
+        <v>39830</v>
+      </c>
+      <c r="D41">
+        <v>1659.6</v>
+      </c>
+      <c r="E41">
+        <v>4761.6</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>11.5</v>
+      </c>
+      <c r="H41">
+        <v>343</v>
+      </c>
+      <c r="I41">
+        <v>1237.2</v>
+      </c>
+      <c r="J41">
+        <v>23375</v>
+      </c>
+      <c r="K41">
         <v>24</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41">
+      <c r="L41">
         <v>1659.6</v>
       </c>
-      <c r="D41">
-        <v>4761.6</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>11.5</v>
-      </c>
-      <c r="G41">
-        <v>343</v>
-      </c>
-      <c r="H41">
-        <v>1237.2</v>
-      </c>
-      <c r="I41">
-        <v>23375</v>
-      </c>
-      <c r="J41">
+      <c r="M41">
+        <v>19</v>
+      </c>
+      <c r="N41">
+        <v>79.2</v>
+      </c>
+      <c r="O41">
+        <v>0.5</v>
+      </c>
+      <c r="P41">
+        <v>21545</v>
+      </c>
+      <c r="Q41">
+        <v>897.7</v>
+      </c>
+      <c r="R41">
+        <v>2669.7</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>184.5</v>
+      </c>
+      <c r="V41">
+        <v>643</v>
+      </c>
+      <c r="W41">
+        <v>13270</v>
+      </c>
+      <c r="X41">
         <v>24</v>
       </c>
-      <c r="K41">
-        <v>19</v>
-      </c>
-      <c r="L41">
-        <v>79.2</v>
-      </c>
-      <c r="M41">
-        <v>0.5</v>
-      </c>
-      <c r="N41">
+      <c r="Y41">
         <v>897.7</v>
       </c>
-      <c r="O41">
-        <v>2669.7</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>184.5</v>
-      </c>
-      <c r="S41">
-        <v>643</v>
-      </c>
-      <c r="T41">
-        <v>13270</v>
-      </c>
-      <c r="U41">
-        <v>24</v>
-      </c>
-      <c r="V41">
+      <c r="Z41">
         <v>14</v>
       </c>
-      <c r="W41">
+      <c r="AA41">
         <v>58.3</v>
       </c>
-      <c r="X41">
+      <c r="AB41">
         <v>0.4</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:28">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C42">
+        <v>44483</v>
+      </c>
+      <c r="D42">
         <v>1011</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>2772.3</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
       <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
         <v>2</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>139</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>821.2</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>16934</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>44</v>
       </c>
-      <c r="K42">
+      <c r="L42">
+        <v>1011</v>
+      </c>
+      <c r="M42">
         <v>35</v>
       </c>
-      <c r="L42">
+      <c r="N42">
         <v>79.5</v>
       </c>
-      <c r="M42">
+      <c r="O42">
         <v>0.5</v>
       </c>
-      <c r="N42">
+      <c r="P42">
+        <v>47651</v>
+      </c>
+      <c r="Q42">
         <v>1083</v>
       </c>
-      <c r="O42">
+      <c r="R42">
         <v>5657.5</v>
       </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
       <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
         <v>346.8</v>
       </c>
-      <c r="T42">
+      <c r="W42">
         <v>37660</v>
       </c>
-      <c r="U42">
+      <c r="X42">
         <v>44</v>
       </c>
-      <c r="V42">
+      <c r="Y42">
+        <v>1083</v>
+      </c>
+      <c r="Z42">
         <v>17</v>
       </c>
-      <c r="W42">
+      <c r="AA42">
         <v>38.6</v>
       </c>
-      <c r="X42">
+      <c r="AB42">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:28">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C43">
+        <v>332083</v>
+      </c>
+      <c r="D43">
         <v>917.4</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>4269.3</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>3.5</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>301</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>53083</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>362</v>
       </c>
-      <c r="K43">
+      <c r="L43">
+        <v>917.4</v>
+      </c>
+      <c r="M43">
         <v>189</v>
       </c>
-      <c r="L43">
+      <c r="N43">
         <v>52.2</v>
       </c>
-      <c r="M43">
+      <c r="O43">
         <v>-0.3</v>
       </c>
-      <c r="N43">
+      <c r="P43">
+        <v>140419</v>
+      </c>
+      <c r="Q43">
         <v>387.9</v>
       </c>
-      <c r="O43">
+      <c r="R43">
         <v>2357.5</v>
       </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
       <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
         <v>105.2</v>
       </c>
-      <c r="T43">
+      <c r="W43">
         <v>37563</v>
       </c>
-      <c r="U43">
+      <c r="X43">
         <v>362</v>
       </c>
-      <c r="V43">
+      <c r="Y43">
+        <v>387.9</v>
+      </c>
+      <c r="Z43">
         <v>104</v>
       </c>
-      <c r="W43">
+      <c r="AA43">
         <v>28.7</v>
       </c>
-      <c r="X43">
+      <c r="AB43">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:28">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44">
+        <v>101563</v>
+      </c>
+      <c r="D44">
+        <v>2418.2</v>
+      </c>
+      <c r="E44">
+        <v>10746.5</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>9</v>
+      </c>
+      <c r="I44">
+        <v>840.2</v>
+      </c>
+      <c r="J44">
+        <v>69137</v>
+      </c>
+      <c r="K44">
+        <v>42</v>
+      </c>
+      <c r="L44">
+        <v>2418.2</v>
+      </c>
+      <c r="M44">
+        <v>23</v>
+      </c>
+      <c r="N44">
+        <v>54.8</v>
+      </c>
+      <c r="O44">
+        <v>-0.2</v>
+      </c>
+      <c r="P44">
+        <v>43700</v>
+      </c>
+      <c r="Q44">
+        <v>1040.5</v>
+      </c>
+      <c r="R44">
+        <v>2836.5</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>406.2</v>
+      </c>
+      <c r="W44">
+        <v>13258</v>
+      </c>
+      <c r="X44">
+        <v>42</v>
+      </c>
+      <c r="Y44">
+        <v>1040.5</v>
+      </c>
+      <c r="Z44">
+        <v>13</v>
+      </c>
+      <c r="AA44">
+        <v>31</v>
+      </c>
+      <c r="AB44">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="A45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C44">
-        <v>2418.2</v>
-      </c>
-      <c r="D44">
-        <v>10746.5</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>9</v>
-      </c>
-      <c r="H44">
-        <v>840.2</v>
-      </c>
-      <c r="I44">
-        <v>69137</v>
-      </c>
-      <c r="J44">
-        <v>42</v>
-      </c>
-      <c r="K44">
-        <v>23</v>
-      </c>
-      <c r="L44">
-        <v>54.8</v>
-      </c>
-      <c r="M44">
-        <v>-0.2</v>
-      </c>
-      <c r="N44">
-        <v>1040.5</v>
-      </c>
-      <c r="O44">
-        <v>2836.5</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>406.2</v>
-      </c>
-      <c r="T44">
-        <v>13258</v>
-      </c>
-      <c r="U44">
-        <v>42</v>
-      </c>
-      <c r="V44">
-        <v>13</v>
-      </c>
-      <c r="W44">
-        <v>31</v>
-      </c>
-      <c r="X44">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24">
-      <c r="A45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C45">
+        <v>6815</v>
+      </c>
+      <c r="D45">
         <v>2271.7</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>3395.5</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
       <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
         <v>320</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>640</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>3407.5</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>6175</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>3</v>
       </c>
-      <c r="K45">
+      <c r="L45">
+        <v>2271.7</v>
+      </c>
+      <c r="M45">
         <v>2</v>
       </c>
-      <c r="L45">
+      <c r="N45">
         <v>66.7</v>
       </c>
-      <c r="M45">
+      <c r="O45">
         <v>0.1</v>
       </c>
-      <c r="N45">
+      <c r="P45">
+        <v>1986</v>
+      </c>
+      <c r="Q45">
         <v>662</v>
       </c>
-      <c r="O45">
+      <c r="R45">
         <v>803.5</v>
       </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
         <v>215</v>
       </c>
-      <c r="R45">
+      <c r="U45">
         <v>430</v>
       </c>
-      <c r="S45">
+      <c r="V45">
         <v>993</v>
       </c>
-      <c r="T45">
+      <c r="W45">
         <v>1556</v>
       </c>
-      <c r="U45">
+      <c r="X45">
         <v>3</v>
       </c>
-      <c r="V45">
+      <c r="Y45">
+        <v>662</v>
+      </c>
+      <c r="Z45">
         <v>2</v>
       </c>
-      <c r="W45">
+      <c r="AA45">
         <v>66.7</v>
       </c>
-      <c r="X45">
+      <c r="AB45">
         <v>0.7</v>
       </c>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:28">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C46">
+        <v>7534</v>
+      </c>
+      <c r="D46">
         <v>684.9</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>1386</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
       <c r="F46">
         <v>0</v>
       </c>
@@ -3601,71 +4127,83 @@
         <v>0</v>
       </c>
       <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>574.5</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>4475</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>11</v>
       </c>
-      <c r="K46">
+      <c r="L46">
+        <v>684.9</v>
+      </c>
+      <c r="M46">
         <v>5</v>
       </c>
-      <c r="L46">
+      <c r="N46">
         <v>45.5</v>
       </c>
-      <c r="M46">
+      <c r="O46">
         <v>-0.5</v>
       </c>
-      <c r="N46">
+      <c r="P46">
+        <v>1924</v>
+      </c>
+      <c r="Q46">
         <v>174.9</v>
       </c>
-      <c r="O46">
+      <c r="R46">
         <v>335.3</v>
       </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
       <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
         <v>127.5</v>
       </c>
-      <c r="T46">
+      <c r="W46">
         <v>874</v>
       </c>
-      <c r="U46">
+      <c r="X46">
         <v>11</v>
       </c>
-      <c r="V46">
+      <c r="Y46">
+        <v>174.9</v>
+      </c>
+      <c r="Z46">
         <v>3</v>
       </c>
-      <c r="W46">
+      <c r="AA46">
         <v>27.3</v>
       </c>
-      <c r="X46">
+      <c r="AB46">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:28">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C47">
+        <v>180640</v>
+      </c>
+      <c r="D47">
         <v>1881.7</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>6943.9</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
       <c r="F47">
         <v>0</v>
       </c>
@@ -3673,430 +4211,502 @@
         <v>0</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>583.2</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>53110</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>96</v>
       </c>
-      <c r="K47">
+      <c r="L47">
+        <v>1881.7</v>
+      </c>
+      <c r="M47">
         <v>44</v>
       </c>
-      <c r="L47">
+      <c r="N47">
         <v>45.8</v>
       </c>
-      <c r="M47">
+      <c r="O47">
         <v>-0.5</v>
       </c>
-      <c r="N47">
+      <c r="P47">
+        <v>52526</v>
+      </c>
+      <c r="Q47">
         <v>547.1</v>
       </c>
-      <c r="O47">
+      <c r="R47">
         <v>2592.6</v>
       </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
       <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
         <v>0.8</v>
       </c>
-      <c r="T47">
+      <c r="W47">
         <v>22243</v>
       </c>
-      <c r="U47">
+      <c r="X47">
         <v>96</v>
       </c>
-      <c r="V47">
+      <c r="Y47">
+        <v>547.1</v>
+      </c>
+      <c r="Z47">
         <v>24</v>
       </c>
-      <c r="W47">
+      <c r="AA47">
         <v>25</v>
       </c>
-      <c r="X47">
+      <c r="AB47">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:28">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48">
+        <v>3196</v>
+      </c>
+      <c r="D48">
+        <v>1065.3</v>
+      </c>
+      <c r="E48">
+        <v>1845.2</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>1598</v>
+      </c>
+      <c r="J48">
+        <v>3196</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <v>1065.3</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>33.3</v>
+      </c>
+      <c r="O48">
+        <v>-0.9</v>
+      </c>
+      <c r="P48">
+        <v>809</v>
+      </c>
+      <c r="Q48">
+        <v>269.7</v>
+      </c>
+      <c r="R48">
+        <v>467.1</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>404.5</v>
+      </c>
+      <c r="W48">
+        <v>809</v>
+      </c>
+      <c r="X48">
+        <v>3</v>
+      </c>
+      <c r="Y48">
+        <v>269.7</v>
+      </c>
+      <c r="Z48">
+        <v>1</v>
+      </c>
+      <c r="AA48">
+        <v>33.3</v>
+      </c>
+      <c r="AB48">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C48">
-        <v>1065.3</v>
-      </c>
-      <c r="D48">
-        <v>1845.2</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>1598</v>
-      </c>
-      <c r="I48">
-        <v>3196</v>
-      </c>
-      <c r="J48">
-        <v>3</v>
-      </c>
-      <c r="K48">
+      <c r="C49">
+        <v>99301</v>
+      </c>
+      <c r="D49">
+        <v>6620.1</v>
+      </c>
+      <c r="E49">
+        <v>6395.9</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>2835</v>
+      </c>
+      <c r="H49">
+        <v>4522</v>
+      </c>
+      <c r="I49">
+        <v>8067.5</v>
+      </c>
+      <c r="J49">
+        <v>18739</v>
+      </c>
+      <c r="K49">
+        <v>15</v>
+      </c>
+      <c r="L49">
+        <v>6620.1</v>
+      </c>
+      <c r="M49">
+        <v>14</v>
+      </c>
+      <c r="N49">
+        <v>93.3</v>
+      </c>
+      <c r="O49">
         <v>1</v>
       </c>
-      <c r="L48">
-        <v>33.3</v>
-      </c>
-      <c r="M48">
-        <v>-0.9</v>
-      </c>
-      <c r="N48">
-        <v>269.7</v>
-      </c>
-      <c r="O48">
-        <v>467.1</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>404.5</v>
-      </c>
-      <c r="T48">
-        <v>809</v>
-      </c>
-      <c r="U48">
-        <v>3</v>
-      </c>
-      <c r="V48">
-        <v>1</v>
-      </c>
-      <c r="W48">
-        <v>33.3</v>
-      </c>
-      <c r="X48">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24">
-      <c r="A49" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49">
-        <v>6620.1</v>
-      </c>
-      <c r="D49">
-        <v>6395.9</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>2835</v>
-      </c>
-      <c r="G49">
-        <v>4522</v>
-      </c>
-      <c r="H49">
-        <v>8067.5</v>
-      </c>
-      <c r="I49">
-        <v>18739</v>
-      </c>
-      <c r="J49">
+      <c r="P49">
+        <v>13597</v>
+      </c>
+      <c r="Q49">
+        <v>906.5</v>
+      </c>
+      <c r="R49">
+        <v>525.4</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>669</v>
+      </c>
+      <c r="U49">
+        <v>964</v>
+      </c>
+      <c r="V49">
+        <v>1118.5</v>
+      </c>
+      <c r="W49">
+        <v>1746</v>
+      </c>
+      <c r="X49">
         <v>15</v>
       </c>
-      <c r="K49">
-        <v>14</v>
-      </c>
-      <c r="L49">
-        <v>93.3</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
+      <c r="Y49">
         <v>906.5</v>
       </c>
-      <c r="O49">
-        <v>525.4</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>669</v>
-      </c>
-      <c r="R49">
-        <v>964</v>
-      </c>
-      <c r="S49">
-        <v>1118.5</v>
-      </c>
-      <c r="T49">
-        <v>1746</v>
-      </c>
-      <c r="U49">
-        <v>15</v>
-      </c>
-      <c r="V49">
+      <c r="Z49">
         <v>13</v>
       </c>
-      <c r="W49">
+      <c r="AA49">
         <v>86.7</v>
       </c>
-      <c r="X49">
+      <c r="AB49">
         <v>1.3</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:28">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C50">
+        <v>142682</v>
+      </c>
+      <c r="D50">
         <v>3963.4</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>10181.2</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
       <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
         <v>588</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>1655</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>2906.5</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>60677</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>36</v>
       </c>
-      <c r="K50">
+      <c r="L50">
+        <v>3963.4</v>
+      </c>
+      <c r="M50">
         <v>33</v>
       </c>
-      <c r="L50">
+      <c r="N50">
         <v>91.7</v>
       </c>
-      <c r="M50">
+      <c r="O50">
         <v>0.9</v>
       </c>
-      <c r="N50">
+      <c r="P50">
+        <v>19983</v>
+      </c>
+      <c r="Q50">
         <v>555.1</v>
       </c>
-      <c r="O50">
+      <c r="R50">
         <v>568.7</v>
       </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
         <v>568</v>
       </c>
-      <c r="S50">
+      <c r="V50">
         <v>888</v>
       </c>
-      <c r="T50">
+      <c r="W50">
         <v>1991</v>
       </c>
-      <c r="U50">
+      <c r="X50">
         <v>36</v>
       </c>
-      <c r="V50">
+      <c r="Y50">
+        <v>555.1</v>
+      </c>
+      <c r="Z50">
         <v>23</v>
       </c>
-      <c r="W50">
+      <c r="AA50">
         <v>63.9</v>
       </c>
-      <c r="X50">
+      <c r="AB50">
         <v>0.6</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:28">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C51">
+        <v>104970</v>
+      </c>
+      <c r="D51">
         <v>2762.4</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>4306.6</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
       <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
         <v>12.5</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>1022.5</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>3422.2</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>20536</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>38</v>
       </c>
-      <c r="K51">
+      <c r="L51">
+        <v>2762.4</v>
+      </c>
+      <c r="M51">
         <v>29</v>
       </c>
-      <c r="L51">
+      <c r="N51">
         <v>76.3</v>
       </c>
-      <c r="M51">
+      <c r="O51">
         <v>0.4</v>
       </c>
-      <c r="N51">
+      <c r="P51">
+        <v>23049</v>
+      </c>
+      <c r="Q51">
         <v>606.6</v>
       </c>
-      <c r="O51">
+      <c r="R51">
         <v>1099</v>
       </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
       <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
         <v>925.8</v>
       </c>
-      <c r="T51">
+      <c r="W51">
         <v>5435</v>
       </c>
-      <c r="U51">
+      <c r="X51">
         <v>38</v>
       </c>
-      <c r="V51">
+      <c r="Y51">
+        <v>606.6</v>
+      </c>
+      <c r="Z51">
         <v>16</v>
       </c>
-      <c r="W51">
+      <c r="AA51">
         <v>42.1</v>
       </c>
-      <c r="X51">
+      <c r="AB51">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:28">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C52">
+        <v>15971</v>
+      </c>
+      <c r="D52">
         <v>5323.7</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>6049.3</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>1002</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>1867</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>2732</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>7484.5</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>12237</v>
-      </c>
-      <c r="J52">
-        <v>3</v>
       </c>
       <c r="K52">
         <v>3</v>
       </c>
       <c r="L52">
+        <v>5323.7</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52">
         <v>100</v>
       </c>
-      <c r="M52">
+      <c r="O52">
         <v>1.2</v>
       </c>
-      <c r="N52">
+      <c r="P52">
+        <v>736</v>
+      </c>
+      <c r="Q52">
         <v>245.3</v>
       </c>
-      <c r="O52">
+      <c r="R52">
         <v>213.1</v>
       </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
         <v>175.5</v>
       </c>
-      <c r="R52">
+      <c r="U52">
         <v>351</v>
       </c>
-      <c r="S52">
+      <c r="V52">
         <v>368</v>
       </c>
-      <c r="T52">
+      <c r="W52">
         <v>385</v>
       </c>
-      <c r="U52">
+      <c r="X52">
         <v>3</v>
       </c>
-      <c r="V52">
+      <c r="Y52">
+        <v>245.3</v>
+      </c>
+      <c r="Z52">
         <v>2</v>
       </c>
-      <c r="W52">
+      <c r="AA52">
         <v>66.7</v>
       </c>
-      <c r="X52">
+      <c r="AB52">
         <v>0.7</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:28">
       <c r="A53" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C53">
         <v>200</v>
       </c>
-      <c r="E53">
+      <c r="D53">
         <v>200</v>
       </c>
       <c r="F53">
@@ -4112,19 +4722,22 @@
         <v>200</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="L53">
+        <v>200</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
         <v>100</v>
       </c>
-      <c r="M53">
+      <c r="O53">
         <v>1.2</v>
-      </c>
-      <c r="N53">
-        <v>211</v>
       </c>
       <c r="P53">
         <v>211</v>
@@ -4132,9 +4745,6 @@
       <c r="Q53">
         <v>211</v>
       </c>
-      <c r="R53">
-        <v>211</v>
-      </c>
       <c r="S53">
         <v>211</v>
       </c>
@@ -4142,27 +4752,39 @@
         <v>211</v>
       </c>
       <c r="U53">
+        <v>211</v>
+      </c>
+      <c r="V53">
+        <v>211</v>
+      </c>
+      <c r="W53">
+        <v>211</v>
+      </c>
+      <c r="X53">
         <v>1</v>
       </c>
-      <c r="V53">
+      <c r="Y53">
+        <v>211</v>
+      </c>
+      <c r="Z53">
         <v>1</v>
       </c>
-      <c r="W53">
+      <c r="AA53">
         <v>100</v>
       </c>
-      <c r="X53">
+      <c r="AB53">
         <v>1.6</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:28">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C54">
         <v>53</v>
       </c>
-      <c r="E54">
+      <c r="D54">
         <v>53</v>
       </c>
       <c r="F54">
@@ -4178,29 +4800,29 @@
         <v>53</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54">
+        <v>53</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
         <v>100</v>
       </c>
-      <c r="M54">
+      <c r="O54">
         <v>1.2</v>
       </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
       <c r="P54">
         <v>0</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
       <c r="S54">
         <v>0</v>
       </c>
@@ -4208,32 +4830,44 @@
         <v>0</v>
       </c>
       <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
         <v>1</v>
       </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:28">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C55">
+        <v>58572</v>
+      </c>
+      <c r="D55">
         <v>1195.3</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>4121.4</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
       <c r="F55">
         <v>0</v>
       </c>
@@ -4241,101 +4875,113 @@
         <v>0</v>
       </c>
       <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
         <v>202</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>26305</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>49</v>
       </c>
-      <c r="K55">
+      <c r="L55">
+        <v>1195.3</v>
+      </c>
+      <c r="M55">
         <v>20</v>
       </c>
-      <c r="L55">
+      <c r="N55">
         <v>40.8</v>
       </c>
-      <c r="M55">
+      <c r="O55">
         <v>-0.7</v>
       </c>
-      <c r="N55">
+      <c r="P55">
+        <v>11620</v>
+      </c>
+      <c r="Q55">
         <v>237.1</v>
       </c>
-      <c r="O55">
+      <c r="R55">
         <v>716.6</v>
       </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
       <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
         <v>152</v>
       </c>
-      <c r="T55">
+      <c r="W55">
         <v>4440</v>
       </c>
-      <c r="U55">
+      <c r="X55">
         <v>49</v>
       </c>
-      <c r="V55">
+      <c r="Y55">
+        <v>237.1</v>
+      </c>
+      <c r="Z55">
         <v>13</v>
       </c>
-      <c r="W55">
+      <c r="AA55">
         <v>26.5</v>
       </c>
-      <c r="X55">
+      <c r="AB55">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:28">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C56">
+        <v>1986</v>
+      </c>
+      <c r="D56">
         <v>496.5</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>684</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>268</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>764.5</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>1450</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>4</v>
       </c>
-      <c r="K56">
+      <c r="L56">
+        <v>496.5</v>
+      </c>
+      <c r="M56">
         <v>2</v>
       </c>
-      <c r="L56">
+      <c r="N56">
         <v>50</v>
       </c>
-      <c r="M56">
+      <c r="O56">
         <v>-0.4</v>
       </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
       <c r="P56">
         <v>0</v>
       </c>
@@ -4352,22 +4998,34 @@
         <v>0</v>
       </c>
       <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
         <v>4</v>
       </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
         <v>-1.3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="N1:X1"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="P1:AB1"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A15:A18"/>
